--- a/output/google_maps_data_Transportasi_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Transportasi_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Transportasi+Kota+Yogyakarta/@-7.8056335,110.3636606,13z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>0815-1703-6767</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>-7.814237</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.814237</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.362575</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Day+Trans+Gading+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a579658a9c24d:0xf67c4a6cb1e8b3a0!8m2!3d-7.8142368!4d110.3625752!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11bbx0sn0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Day+Trans+Gading+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a579658a9c24d:0xf67c4a6cb1e8b3a0!8m2!3d-7.8142368!4d110.3625752!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11bbx0sn0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -571,25 +564,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>-7.815137</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.815137</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.371805</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Halte+Bus+Transjogja+-+Museum+Perjuangan/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a5798b78f4b99:0x1c24d6d6de3eef5b!8m2!3d-7.815137!4d110.371805!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQtidXNfY29tcGFueZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNE5qVXROR0ozRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bt_j3j6c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Halte+Bus+Transjogja+-+Museum+Perjuangan/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a5798b78f4b99:0x1c24d6d6de3eef5b!8m2!3d-7.815137!4d110.371805!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQtidXNfY29tcGFueZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNE5qVXROR0ozRUFF4AEA-gEECAAQOQ!16s%2Fg%2F11bt_j3j6c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -608,25 +600,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>-7.795684</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.795684</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.372594</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Halte+Bus+Trans+Jogja+Jl+Hayam+Wuruk/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a59bc7f619aa3:0x86e2d232172f33d!8m2!3d-7.7956845!4d110.3725938!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJJYWpWdWJVTlJFQUXgAQD6AQQIIxAu!16s%2Fg%2F11jt634nhk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Halte+Bus+Trans+Jogja+Jl+Hayam+Wuruk/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a59bc7f619aa3:0x86e2d232172f33d!8m2!3d-7.7956845!4d110.3725938!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJJYWpWdWJVTlJFQUXgAQD6AQQIIxAu!16s%2Fg%2F11jt634nhk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -649,25 +640,24 @@
           <t>0853-7995-6568</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>-7.789989</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.789989</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.364252</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rental+Mobil+Jogja+Murah+-+Jemput+Stasiun+Tugu+Jogja+GA+Transport/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a590005d5065f:0xc78cb57a76cd06e8!8m2!3d-7.7899891!4d110.3642523!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARFjYXJfcmVudGFsX2FnZW5jeeABAA!16s%2Fg%2F11w590pwlh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rental+Mobil+Jogja+Murah+-+Jemput+Stasiun+Tugu+Jogja+GA+Transport/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a590005d5065f:0xc78cb57a76cd06e8!8m2!3d-7.7899891!4d110.3642523!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARFjYXJfcmVudGFsX2FnZW5jeeABAA!16s%2Fg%2F11w590pwlh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -686,25 +676,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.8013</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.8013</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.360138</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Halte+Trans+Jogja+Jl.Ahmad+Dahlan/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a574df85d71e1:0x9938154a4811ede2!8m2!3d-7.8012996!4d110.3601377!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJIZUhZM2NuQjNSUkFC4AEA-gEECAAQRA!16s%2Fg%2F11sg1sz1b4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -723,25 +712,24 @@
           <t>0851-0460-9898</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>-7.797865</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.797865</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.352705</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bandung+Express/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57f56da3b8c7:0x7bb20b08a257f9e2!8m2!3d-7.7978654!4d110.3527045!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI1YlhKNWNHOW5SUkFC4AEA-gEECAAQSA!16s%2Fg%2F1hm5ypbx2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bandung+Express/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57f56da3b8c7:0x7bb20b08a257f9e2!8m2!3d-7.7978654!4d110.3527045!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI1YlhKNWNHOW5SUkFC4AEA-gEECAAQSA!16s%2Fg%2F1hm5ypbx2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -768,25 +756,24 @@
           <t>0822-2131-1992</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.791588</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.791588</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.36149</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO.+JOGJAINDOTRANS+Bus+Pariwisata+Jogja/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a54f9f3831bd9:0xcf8553ce004a8d90!8m2!3d-7.7915876!4d110.3614897!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQtidXNfY2hhcnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VScWRpMVBjVUpSRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11dyqt10_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO.+JOGJAINDOTRANS+Bus+Pariwisata+Jogja/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a54f9f3831bd9:0xcf8553ce004a8d90!8m2!3d-7.7915876!4d110.3614897!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQtidXNfY2hhcnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VScWRpMVBjVUpSRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11dyqt10_z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -813,25 +800,24 @@
           <t>0813-1853-8434</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>-7.809019</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.809019</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.382226</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bhinneka+Shuttle+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57005f37d01b:0xc00f8ab85c15f8ea!8m2!3d-7.8090187!4d110.3822258!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAR5yZWZyaWdlcmF0ZWRfdHJhbnNwb3J0X3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZkSE5xVmxKQkVBReABAPoBBAhSEDU!16s%2Fg%2F11ww8_s6qq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bhinneka+Shuttle+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57005f37d01b:0xc00f8ab85c15f8ea!8m2!3d-7.8090187!4d110.3822258!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAR5yZWZyaWdlcmF0ZWRfdHJhbnNwb3J0X3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZkSE5xVmxKQkVBReABAPoBBAhSEDU!16s%2Fg%2F11ww8_s6qq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -850,25 +836,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.78931</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.78931</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.362981</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Stasiun+Tugu+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a5996009d8d9d:0x79a5b74d4696e674!8m2!3d-7.7893103!4d110.3629814!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11kjjw9mwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Stasiun+Tugu+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a5996009d8d9d:0x79a5b74d4696e674!8m2!3d-7.7893103!4d110.3629814!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11kjjw9mwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>55 menit lalu</t>
         </is>
@@ -895,25 +880,24 @@
           <t>(0274) 410002</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>-7.833914</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.833914</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.391604</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kota+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a58475a4414a7:0xb5d50eb3ac1c4126!8m2!3d-7.8339138!4d110.3916043!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXTUhWcGVXZG5SUkFC4AEA-gEECAAQPA!16s%2Fg%2F1pzwbf_yp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kota+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a58475a4414a7:0xb5d50eb3ac1c4126!8m2!3d-7.8339138!4d110.3916043!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJXTUhWcGVXZG5SUkFC4AEA-gEECAAQPA!16s%2Fg%2F1pzwbf_yp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -936,25 +920,24 @@
           <t>0813-5502-9175</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>-7.808101</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.808101</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.360721</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayutita+Transport/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a578de1684b79:0xa1386b8e9bd09245!8m2!3d-7.808101!4d110.360721!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11bzq3qml1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayutita+Transport/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a578de1684b79:0xa1386b8e9bd09245!8m2!3d-7.808101!4d110.360721!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11bzq3qml1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -973,25 +956,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>-7.834095</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.834095</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.39167</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Terminal+Giwangan/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a571d1593faaf:0x2653bf502e1372c3!8m2!3d-7.8340953!4d110.3916701!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQtidXNfc3RhdGlvbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOa1gzQm1VR05uRUFF4AEA-gEECAAQQQ!16s%2Fg%2F1237d8mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1014,25 +996,24 @@
           <t>0895-3296-88833</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>-7.823713</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.823713</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.361505</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO+KARYA+JASA+(+PT+KARYAJASA+TRANSPORT)/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57bb032c0b4f:0x247e528f3e2a3b82!8m2!3d-7.8237131!4d110.3615053!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQtidXNfY2hhcnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSVWFIRmxjRlozRUFF4AEA-gEFCNEBECc!16s%2Fg%2F1hc1_cfm1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO+KARYA+JASA+(+PT+KARYAJASA+TRANSPORT)/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57bb032c0b4f:0x247e528f3e2a3b82!8m2!3d-7.8237131!4d110.3615053!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQtidXNfY2hhcnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSVWFIRmxjRlozRUFF4AEA-gEFCNEBECc!16s%2Fg%2F1hc1_cfm1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1059,25 +1040,24 @@
           <t>0812-2808-844</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.78519</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.78519</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.364886</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Abdi+Transport+Jogja/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a583ac89be809:0xfc6a94863ccc8ad1!8m2!3d-7.7851896!4d110.3648855!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11fz9_77nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Abdi+Transport+Jogja/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a583ac89be809:0xfc6a94863ccc8ad1!8m2!3d-7.7851896!4d110.3648855!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11fz9_77nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1096,25 +1076,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.6</v>
+        <v>-7.791142</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.791142</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.375217</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Stasiun+Lempuyangan+Jogja/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a582b9ca3fe9d:0xbb997376bb412f86!8m2!3d-7.7911423!4d110.3752167!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVE1T0V4UFFuRkJSUkFC4AEA-gEECAAQMw!16s%2Fg%2F11f3hcrsqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1137,25 +1116,24 @@
           <t>0856-0280-6519</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>-7.814713</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.814713</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.36262</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Semeru+Trans+Gading/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57c6ea3e932b:0x6000fd7407a5f381!8m2!3d-7.8147133!4d110.3626201!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU51ZW5CUWRERjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11sw4tcnmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Semeru+Trans+Gading/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57c6ea3e932b:0x6000fd7407a5f381!8m2!3d-7.8147133!4d110.3626201!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU51ZW5CUWRERjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11sw4tcnmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1178,25 +1156,24 @@
           <t>0851-0281-5677</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.803432</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.803432</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.366665</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkut+barang+murah+jogja/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a571f4c0ad711:0xc2030e9c6b983028!8m2!3d-7.8034325!4d110.3666652!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQWDNWTFl6bEJSUkFC4AEA-gEECAAQEg!16s%2Fg%2F11qh8q88ns?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkut+barang+murah+jogja/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a571f4c0ad711:0xc2030e9c6b983028!8m2!3d-7.8034325!4d110.3666652!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQWDNWTFl6bEJSUkFC4AEA-gEECAAQEg!16s%2Fg%2F11qh8q88ns?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1219,25 +1196,24 @@
           <t>0856-4305-2155</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>-7.803853</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.803853</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.360635</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bording+Point+Travel+Jogja+Kudus+Jepara/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57230303243f:0xf14642467a32c885!8m2!3d-7.8038533!4d110.360635!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11px9kz77m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bording+Point+Travel+Jogja+Kudus+Jepara/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a57230303243f:0xf14642467a32c885!8m2!3d-7.8038533!4d110.360635!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11px9kz77m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1264,25 +1240,24 @@
           <t>0812-2857-2064</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.791473</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.791473</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.363215</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Restu+Mulya+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a582686967af3:0x29b269ccd04b5298!8m2!3d-7.7914729!4d110.3632148!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARFidXNfdGlja2V0X2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWFFNWxVM0JCUlJBQuABAPoBBAgAEDk!16s%2Fg%2F1pzpp1qbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Restu+Mulya+Yogyakarta/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a582686967af3:0x29b269ccd04b5298!8m2!3d-7.7914729!4d110.3632148!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARFidXNfdGlja2V0X2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWFFNWxVM0JCUlJBQuABAPoBBAgAEDk!16s%2Fg%2F1pzpp1qbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1305,25 +1280,24 @@
           <t>0896-6792-6385</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.80735</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.80735</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.346524</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkutan/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a5740dfc7f651:0xf56d45dadf8c6843!8m2!3d-7.8073501!4d110.3465241!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF0TnpReVlrSjNFQUXgAQD6AQQIABA1!16s%2Fg%2F11tjxlbrxx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkutan/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a5740dfc7f651:0xf56d45dadf8c6843!8m2!3d-7.8073501!4d110.3465241!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF0TnpReVlrSjNFQUXgAQD6AQQIABA1!16s%2Fg%2F11tjxlbrxx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1342,25 +1316,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>-7.801161</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.801161</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.360385</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/K.H.A.+Dahlan+1/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a578bfe27c51b:0x494223885e5a369c!8m2!3d-7.8011607!4d110.360385!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQhidXNfc3RvcJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE5FeGZkamRCUlJBQuABAPoBBQi6AxA-!16s%2Fg%2F11bbx078w1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/K.H.A.+Dahlan+1/@-7.8142368,110.2904774,13z/data=!4m10!1m2!2m1!1sTransportasi+Kota+Yogyakarta!3m6!1s0x2e7a578bfe27c51b:0x494223885e5a369c!8m2!3d-7.8011607!4d110.360385!15sChxUcmFuc3BvcnRhc2kgS290YSBZb2d5YWthcnRhWh4iHHRyYW5zcG9ydGFzaSBrb3RhIHlvZ3lha2FydGGSAQhidXNfc3RvcJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE5FeGZkamRCUlJBQuABAPoBBQi6AxA-!16s%2Fg%2F11bbx078w1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
